--- a/edValueProj/project/project/uploadedFile/ERTE.xlsx
+++ b/edValueProj/project/project/uploadedFile/ERTE.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD196C1A-1F63-490C-A2D9-21D643C9ACAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1B69B6-6AAA-4881-802A-88E0D16EBD02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>דוד</t>
   </si>
   <si>
-    <t>dvd@fmail.com</t>
-  </si>
-  <si>
     <t>רפי</t>
   </si>
   <si>
@@ -89,6 +86,12 @@
   </si>
   <si>
     <t>שבי</t>
+  </si>
+  <si>
+    <t>dvd@gmail.com</t>
+  </si>
+  <si>
+    <t>בן דוד</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,16 +463,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>111122225</v>
+        <v>111111111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>120527</v>
@@ -483,13 +486,13 @@
         <v>222555000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>120527</v>
@@ -535,13 +538,13 @@
         <v>999987654</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
       <c r="E5">
         <v>460154</v>
@@ -561,13 +564,13 @@
         <v>987789654</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6">
         <v>460157</v>

--- a/edValueProj/project/project/uploadedFile/ERTE.xlsx
+++ b/edValueProj/project/project/uploadedFile/ERTE.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1B69B6-6AAA-4881-802A-88E0D16EBD02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9747FF60-81F6-446E-98F2-98718EEC0290}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -52,46 +52,28 @@
     <t>תלמיד</t>
   </si>
   <si>
-    <t>yoyo@gmail.com</t>
-  </si>
-  <si>
-    <t>אלי</t>
-  </si>
-  <si>
-    <t>קופטר</t>
-  </si>
-  <si>
-    <t>דוד</t>
-  </si>
-  <si>
-    <t>רפי</t>
-  </si>
-  <si>
-    <t>raf@gmail.com</t>
-  </si>
-  <si>
-    <t>kjh@gmail.com</t>
-  </si>
-  <si>
-    <t>חיים</t>
-  </si>
-  <si>
-    <t>משה</t>
-  </si>
-  <si>
-    <t>lop@gmail.com</t>
-  </si>
-  <si>
-    <t>יוסי</t>
-  </si>
-  <si>
-    <t>שבי</t>
-  </si>
-  <si>
-    <t>dvd@gmail.com</t>
-  </si>
-  <si>
-    <t>בן דוד</t>
+    <t>morptao@gmail.com</t>
+  </si>
+  <si>
+    <t>פינטו</t>
+  </si>
+  <si>
+    <t>מור</t>
+  </si>
+  <si>
+    <t>ariel@gmail.com</t>
+  </si>
+  <si>
+    <t>אריאל</t>
+  </si>
+  <si>
+    <t>na123@gmail.com</t>
+  </si>
+  <si>
+    <t>נדב</t>
+  </si>
+  <si>
+    <t>הגנב</t>
   </si>
 </sst>
 </file>
@@ -420,16 +402,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
@@ -463,30 +445,36 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>111111111</v>
+        <v>305779449</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>120527</v>
+        <v>460154</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>222555000</v>
+        <v>206281743</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -495,106 +483,49 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>120527</v>
+        <v>460154</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>192837460</v>
+        <v>303404505</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>120527</v>
+        <v>460154</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>999987654</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>460154</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>987789654</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>460157</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{E7B40D64-0B30-4FA6-9AE6-C4DC79C587CB}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{2035E79E-29D0-453C-86AE-ACE7190BB200}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{09EC6719-2308-4E20-AC7F-8E075AA9D791}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{55EE7C5B-83E1-4581-9B87-9116DD597C41}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{A29E6283-D313-4C4F-8CA6-713568C7BF72}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{12622EE0-322C-467D-A193-83CE8C9905E7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{BC3A3B2C-F8B0-41A2-9A66-D84BF1B45AA5}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{26482F46-EE2C-44D8-B715-795EDEF10C7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/edValueProj/project/project/uploadedFile/ERTE.xlsx
+++ b/edValueProj/project/project/uploadedFile/ERTE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9747FF60-81F6-446E-98F2-98718EEC0290}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33890C41-CD1D-48C9-92BB-C5405645F4FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -46,21 +46,9 @@
     <t>ClassNumber</t>
   </si>
   <si>
-    <t>מורה</t>
-  </si>
-  <si>
     <t>תלמיד</t>
   </si>
   <si>
-    <t>morptao@gmail.com</t>
-  </si>
-  <si>
-    <t>פינטו</t>
-  </si>
-  <si>
-    <t>מור</t>
-  </si>
-  <si>
     <t>ariel@gmail.com</t>
   </si>
   <si>
@@ -74,6 +62,15 @@
   </si>
   <si>
     <t>הגנב</t>
+  </si>
+  <si>
+    <t>רן</t>
+  </si>
+  <si>
+    <t>בנישתי</t>
+  </si>
+  <si>
+    <t>ranBen@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -405,7 +402,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -445,16 +442,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>305779449</v>
+        <v>308346311</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>460154</v>
@@ -474,19 +471,19 @@
         <v>206281743</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>460154</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -500,19 +497,19 @@
         <v>303404505</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>460154</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>1</v>
